--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="207">
   <si>
     <t>mesure</t>
   </si>
@@ -60,55 +60,61 @@
     <t>Réduire l'utilisation des produits phytosanitaires et accélérer la transition écologique</t>
   </si>
   <si>
+    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
+  </si>
+  <si>
+    <t>nb-agriculteurs-agro-eco</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>agriculteurs</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
     <t>Surface agricole cultivée en agriculture biologique</t>
   </si>
   <si>
     <t>surface-agriculture-biologique</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
     <t>0.6</t>
   </si>
   <si>
     <t>% de surface agricole</t>
   </si>
   <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
     <t>0.9</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
-  </si>
-  <si>
-    <t>nb-agriculteurs-agro-eco</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>agriculteurs</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>105.0</t>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2.9</t>
   </si>
   <si>
     <t>02</t>
@@ -117,19 +123,22 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
     <t>1.7</t>
   </si>
   <si>
     <t>2.6</t>
   </si>
   <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
+    <t>3.0</t>
   </si>
   <si>
     <t>03</t>
@@ -138,6 +147,9 @@
     <t>Guyane</t>
   </si>
   <si>
+    <t>75.0</t>
+  </si>
+  <si>
     <t>9.4</t>
   </si>
   <si>
@@ -147,7 +159,7 @@
     <t>11.3</t>
   </si>
   <si>
-    <t>75.0</t>
+    <t>11.4</t>
   </si>
   <si>
     <t>04</t>
@@ -156,22 +168,22 @@
     <t>La Réunion</t>
   </si>
   <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>306.0</t>
+  </si>
+  <si>
+    <t>342.0</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>257.0</t>
-  </si>
-  <si>
-    <t>306.0</t>
-  </si>
-  <si>
-    <t>342.0</t>
+    <t>4.5</t>
   </si>
   <si>
     <t>06</t>
@@ -180,16 +192,19 @@
     <t>Mayotte</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
     <t>0.2</t>
   </si>
   <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
+    <t>0.4</t>
   </si>
   <si>
     <t>11</t>
@@ -198,19 +213,22 @@
     <t>Île-de-France</t>
   </si>
   <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>397.0</t>
+  </si>
+  <si>
+    <t>491.0</t>
+  </si>
+  <si>
     <t>2.7</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
-    <t>314.0</t>
-  </si>
-  <si>
-    <t>397.0</t>
-  </si>
-  <si>
-    <t>491.0</t>
+    <t>6.3</t>
   </si>
   <si>
     <t>Sécuriser le paiement des aides PAC</t>
@@ -234,9 +252,6 @@
     <t>99.58</t>
   </si>
   <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
     <t>99.82</t>
   </si>
   <si>
@@ -246,19 +261,22 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
+    <t>1075.0</t>
+  </si>
+  <si>
+    <t>1275.0</t>
+  </si>
+  <si>
+    <t>1579.0</t>
+  </si>
+  <si>
     <t>3.1</t>
   </si>
   <si>
     <t>3.6</t>
   </si>
   <si>
-    <t>1075.0</t>
-  </si>
-  <si>
-    <t>1275.0</t>
-  </si>
-  <si>
-    <t>1579.0</t>
+    <t>4.3</t>
   </si>
   <si>
     <t>99.07</t>
@@ -276,6 +294,15 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
+    <t>2074.0</t>
+  </si>
+  <si>
+    <t>2363.0</t>
+  </si>
+  <si>
+    <t>2847.0</t>
+  </si>
+  <si>
     <t>5.9</t>
   </si>
   <si>
@@ -285,13 +312,7 @@
     <t>8.1</t>
   </si>
   <si>
-    <t>2074.0</t>
-  </si>
-  <si>
-    <t>2363.0</t>
-  </si>
-  <si>
-    <t>2847.0</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>99.13</t>
@@ -309,7 +330,13 @@
     <t>Normandie</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>1604.0</t>
+  </si>
+  <si>
+    <t>1801.0</t>
+  </si>
+  <si>
+    <t>2010.0</t>
   </si>
   <si>
     <t>4.8</t>
@@ -318,15 +345,6 @@
     <t>5.3</t>
   </si>
   <si>
-    <t>1604.0</t>
-  </si>
-  <si>
-    <t>1801.0</t>
-  </si>
-  <si>
-    <t>2010.0</t>
-  </si>
-  <si>
     <t>98.92</t>
   </si>
   <si>
@@ -339,6 +357,15 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
+    <t>893.0</t>
+  </si>
+  <si>
+    <t>1020.0</t>
+  </si>
+  <si>
+    <t>1252.0</t>
+  </si>
+  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -348,15 +375,6 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>893.0</t>
-  </si>
-  <si>
-    <t>1020.0</t>
-  </si>
-  <si>
-    <t>1252.0</t>
-  </si>
-  <si>
     <t>98.4</t>
   </si>
   <si>
@@ -372,21 +390,21 @@
     <t>Grand Est</t>
   </si>
   <si>
+    <t>2481.0</t>
+  </si>
+  <si>
+    <t>2887.0</t>
+  </si>
+  <si>
+    <t>4180.0</t>
+  </si>
+  <si>
     <t>4.2</t>
   </si>
   <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>2481.0</t>
-  </si>
-  <si>
-    <t>2887.0</t>
-  </si>
-  <si>
-    <t>4180.0</t>
-  </si>
-  <si>
     <t>99.25</t>
   </si>
   <si>
@@ -402,19 +420,22 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
+    <t>2953.0</t>
+  </si>
+  <si>
+    <t>3307.0</t>
+  </si>
+  <si>
+    <t>3928.0</t>
+  </si>
+  <si>
     <t>8.2</t>
   </si>
   <si>
     <t>10.3</t>
   </si>
   <si>
-    <t>2953.0</t>
-  </si>
-  <si>
-    <t>3307.0</t>
-  </si>
-  <si>
-    <t>3928.0</t>
+    <t>11.7</t>
   </si>
   <si>
     <t>99.55</t>
@@ -432,19 +453,22 @@
     <t>Bretagne</t>
   </si>
   <si>
+    <t>2697.0</t>
+  </si>
+  <si>
+    <t>3101.0</t>
+  </si>
+  <si>
+    <t>3394.0</t>
+  </si>
+  <si>
     <t>6.9</t>
   </si>
   <si>
     <t>7.6</t>
   </si>
   <si>
-    <t>2697.0</t>
-  </si>
-  <si>
-    <t>3101.0</t>
-  </si>
-  <si>
-    <t>3394.0</t>
+    <t>9.5</t>
   </si>
   <si>
     <t>99.49</t>
@@ -462,6 +486,15 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
+    <t>5614.0</t>
+  </si>
+  <si>
+    <t>6521.0</t>
+  </si>
+  <si>
+    <t>8704.0</t>
+  </si>
+  <si>
     <t>5.5</t>
   </si>
   <si>
@@ -471,13 +504,7 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>5614.0</t>
-  </si>
-  <si>
-    <t>6521.0</t>
-  </si>
-  <si>
-    <t>8704.0</t>
+    <t>8.4</t>
   </si>
   <si>
     <t>99.39</t>
@@ -492,6 +519,15 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>8270.0</t>
+  </si>
+  <si>
+    <t>9476.0</t>
+  </si>
+  <si>
+    <t>11480.0</t>
+  </si>
+  <si>
     <t>12.8</t>
   </si>
   <si>
@@ -501,13 +537,7 @@
     <t>16.0</t>
   </si>
   <si>
-    <t>8270.0</t>
-  </si>
-  <si>
-    <t>9476.0</t>
-  </si>
-  <si>
-    <t>11480.0</t>
+    <t>17.7</t>
   </si>
   <si>
     <t>97.56</t>
@@ -525,22 +555,22 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
+    <t>5403.0</t>
+  </si>
+  <si>
+    <t>5884.0</t>
+  </si>
+  <si>
+    <t>7007.0</t>
+  </si>
+  <si>
     <t>8.0</t>
   </si>
   <si>
     <t>8.7</t>
   </si>
   <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>5403.0</t>
-  </si>
-  <si>
-    <t>5884.0</t>
-  </si>
-  <si>
-    <t>7007.0</t>
+    <t>10.5</t>
   </si>
   <si>
     <t>97.86</t>
@@ -558,6 +588,15 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
+    <t>3267.0</t>
+  </si>
+  <si>
+    <t>3634.0</t>
+  </si>
+  <si>
+    <t>4454.0</t>
+  </si>
+  <si>
     <t>23.2</t>
   </si>
   <si>
@@ -567,13 +606,7 @@
     <t>28.8</t>
   </si>
   <si>
-    <t>3267.0</t>
-  </si>
-  <si>
-    <t>3634.0</t>
-  </si>
-  <si>
-    <t>4454.0</t>
+    <t>32.4</t>
   </si>
   <si>
     <t>99.41</t>
@@ -591,6 +624,15 @@
     <t>Corse</t>
   </si>
   <si>
+    <t>398.0</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>547.0</t>
+  </si>
+  <si>
     <t>10.6</t>
   </si>
   <si>
@@ -600,13 +642,7 @@
     <t>14.8</t>
   </si>
   <si>
-    <t>398.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
-  </si>
-  <si>
-    <t>547.0</t>
+    <t>18.1</t>
   </si>
   <si>
     <t>92.41</t>
@@ -947,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,6 +1171,32 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1142,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1185,16 +1247,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1211,16 +1273,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1237,16 +1299,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1263,16 +1325,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -1289,16 +1351,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -1315,16 +1377,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -1332,106 +1394,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1484,16 +1572,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1510,16 +1598,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1536,16 +1624,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1562,16 +1650,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -1588,16 +1676,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -1614,16 +1702,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -1631,106 +1719,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1783,16 +1897,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1809,16 +1923,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1835,16 +1949,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1861,16 +1975,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -1887,16 +2001,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -1913,16 +2027,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -1930,106 +2044,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2179,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2082,16 +2222,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2108,16 +2248,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2134,16 +2274,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2160,16 +2300,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -2186,16 +2326,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -2212,16 +2352,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -2229,106 +2369,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2504,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2381,16 +2547,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2407,16 +2573,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2433,16 +2599,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2459,16 +2625,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -2485,16 +2651,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -2511,16 +2677,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -2528,106 +2694,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" t="s">
         <v>150</v>
       </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2637,7 +2829,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2680,16 +2872,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2706,16 +2898,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2732,16 +2924,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2758,16 +2950,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -2784,16 +2976,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -2810,16 +3002,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -2827,106 +3019,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" t="s">
         <v>161</v>
       </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +3154,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2979,16 +3197,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3005,16 +3223,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3031,16 +3249,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3057,16 +3275,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -3083,16 +3301,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -3109,16 +3327,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -3126,106 +3344,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
         <v>172</v>
       </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3235,7 +3479,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3278,16 +3522,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3304,16 +3548,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3330,16 +3574,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3356,16 +3600,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -3382,16 +3626,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -3408,16 +3652,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -3425,106 +3669,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
         <v>183</v>
       </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3534,7 +3804,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3577,16 +3847,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3603,16 +3873,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3629,16 +3899,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3655,16 +3925,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -3681,16 +3951,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -3707,16 +3977,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -3724,106 +3994,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +4129,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3876,16 +4172,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3902,16 +4198,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3928,16 +4224,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3954,16 +4250,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -3980,16 +4276,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -4006,18 +4302,44 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4028,7 +4350,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4071,16 +4393,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4097,16 +4419,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4123,16 +4445,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4149,16 +4471,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -4175,16 +4497,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -4201,18 +4523,44 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4223,7 +4571,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4266,16 +4614,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4292,16 +4640,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4318,16 +4666,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4344,16 +4692,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -4370,16 +4718,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -4396,18 +4744,44 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4418,7 +4792,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4461,16 +4835,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4487,16 +4861,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4513,16 +4887,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4539,16 +4913,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -4565,16 +4939,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -4591,18 +4965,44 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4613,7 +5013,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4656,16 +5056,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4682,16 +5082,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4708,16 +5108,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4734,16 +5134,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -4760,16 +5160,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -4786,16 +5186,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -4803,106 +5203,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4912,7 +5338,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4955,16 +5381,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4981,16 +5407,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5007,16 +5433,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5033,16 +5459,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -5059,16 +5485,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -5085,16 +5511,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -5102,106 +5528,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
         <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5211,7 +5663,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5254,16 +5706,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5280,16 +5732,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5306,16 +5758,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5332,16 +5784,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -5358,16 +5810,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -5384,16 +5836,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -5401,106 +5853,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5510,7 +5988,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5553,16 +6031,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5579,16 +6057,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5605,16 +6083,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5631,16 +6109,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -5657,16 +6135,16 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -5683,16 +6161,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -5700,106 +6178,132 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="225">
   <si>
     <t>mesure</t>
   </si>
@@ -60,61 +60,64 @@
     <t>Réduire l'utilisation des produits phytosanitaires et accélérer la transition écologique</t>
   </si>
   <si>
+    <t>Surface agricole cultivée en agriculture biologique</t>
+  </si>
+  <si>
+    <t>surface-agriculture-biologique</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>% de surface agricole</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
     <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
   </si>
   <si>
     <t>nb-agriculteurs-agro-eco</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
     <t>49.0</t>
   </si>
   <si>
     <t>agriculteurs</t>
   </si>
   <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
     <t>63.0</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
     <t>105.0</t>
   </si>
   <si>
-    <t>Surface agricole cultivée en agriculture biologique</t>
-  </si>
-  <si>
-    <t>surface-agriculture-biologique</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>% de surface agricole</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2.9</t>
+    <t>188.0</t>
   </si>
   <si>
     <t>02</t>
@@ -123,6 +126,15 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
     <t>57.0</t>
   </si>
   <si>
@@ -132,13 +144,7 @@
     <t>85.0</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>3.0</t>
+    <t>120.0</t>
   </si>
   <si>
     <t>03</t>
@@ -147,19 +153,22 @@
     <t>Guyane</t>
   </si>
   <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
     <t>75.0</t>
   </si>
   <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>11.4</t>
+    <t>98.0</t>
   </si>
   <si>
     <t>04</t>
@@ -168,6 +177,15 @@
     <t>La Réunion</t>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
     <t>257.0</t>
   </si>
   <si>
@@ -177,13 +195,7 @@
     <t>342.0</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
+    <t>408.0</t>
   </si>
   <si>
     <t>06</t>
@@ -192,19 +204,22 @@
     <t>Mayotte</t>
   </si>
   <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
     <t>5.0</t>
   </si>
   <si>
     <t>11.0</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>11</t>
@@ -213,6 +228,15 @@
     <t>Île-de-France</t>
   </si>
   <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
     <t>314.0</t>
   </si>
   <si>
@@ -222,13 +246,7 @@
     <t>491.0</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>6.3</t>
+    <t>629.0</t>
   </si>
   <si>
     <t>Sécuriser le paiement des aides PAC</t>
@@ -261,6 +279,15 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>1075.0</t>
   </si>
   <si>
@@ -270,13 +297,7 @@
     <t>1579.0</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>4.3</t>
+    <t>2229.0</t>
   </si>
   <si>
     <t>99.07</t>
@@ -294,6 +315,18 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
     <t>2074.0</t>
   </si>
   <si>
@@ -303,16 +336,7 @@
     <t>2847.0</t>
   </si>
   <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>9.1</t>
+    <t>3615.0</t>
   </si>
   <si>
     <t>99.13</t>
@@ -330,6 +354,12 @@
     <t>Normandie</t>
   </si>
   <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
     <t>1604.0</t>
   </si>
   <si>
@@ -339,10 +369,7 @@
     <t>2010.0</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>5.3</t>
+    <t>2211.0</t>
   </si>
   <si>
     <t>98.92</t>
@@ -357,6 +384,15 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>893.0</t>
   </si>
   <si>
@@ -366,13 +402,7 @@
     <t>1252.0</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.1</t>
+    <t>1495.0</t>
   </si>
   <si>
     <t>98.4</t>
@@ -390,6 +420,12 @@
     <t>Grand Est</t>
   </si>
   <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
     <t>2481.0</t>
   </si>
   <si>
@@ -399,10 +435,7 @@
     <t>4180.0</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.9</t>
+    <t>6189.0</t>
   </si>
   <si>
     <t>99.25</t>
@@ -420,6 +453,15 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
     <t>2953.0</t>
   </si>
   <si>
@@ -429,13 +471,7 @@
     <t>3928.0</t>
   </si>
   <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>11.7</t>
+    <t>4814.0</t>
   </si>
   <si>
     <t>99.55</t>
@@ -453,6 +489,15 @@
     <t>Bretagne</t>
   </si>
   <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
     <t>2697.0</t>
   </si>
   <si>
@@ -462,13 +507,7 @@
     <t>3394.0</t>
   </si>
   <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>9.5</t>
+    <t>3845.0</t>
   </si>
   <si>
     <t>99.49</t>
@@ -486,6 +525,18 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
     <t>5614.0</t>
   </si>
   <si>
@@ -495,16 +546,7 @@
     <t>8704.0</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>8.4</t>
+    <t>11742.0</t>
   </si>
   <si>
     <t>99.39</t>
@@ -519,6 +561,18 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
     <t>8270.0</t>
   </si>
   <si>
@@ -528,16 +582,7 @@
     <t>11480.0</t>
   </si>
   <si>
-    <t>12.8</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>17.7</t>
+    <t>14886.0</t>
   </si>
   <si>
     <t>97.56</t>
@@ -555,6 +600,15 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
     <t>5403.0</t>
   </si>
   <si>
@@ -564,13 +618,7 @@
     <t>7007.0</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>10.5</t>
+    <t>8525.0</t>
   </si>
   <si>
     <t>97.86</t>
@@ -588,6 +636,18 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
     <t>3267.0</t>
   </si>
   <si>
@@ -597,16 +657,7 @@
     <t>4454.0</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>25.6</t>
-  </si>
-  <si>
-    <t>28.8</t>
-  </si>
-  <si>
-    <t>32.4</t>
+    <t>5912.0</t>
   </si>
   <si>
     <t>99.41</t>
@@ -624,6 +675,18 @@
     <t>Corse</t>
   </si>
   <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
     <t>398.0</t>
   </si>
   <si>
@@ -633,16 +696,7 @@
     <t>547.0</t>
   </si>
   <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>18.1</t>
+    <t>670.0</t>
   </si>
   <si>
     <t>92.41</t>
@@ -983,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1098,10 +1152,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1110,13 +1164,13 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1124,10 +1178,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1136,13 +1190,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1150,10 +1204,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1162,13 +1216,13 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1176,10 +1230,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1188,13 +1242,39 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1247,16 +1327,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1273,16 +1353,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1299,16 +1379,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1319,25 +1399,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1345,25 +1425,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1371,25 +1451,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1397,129 +1477,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
         <v>116</v>
       </c>
-      <c r="H12" t="s">
-        <v>70</v>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1572,16 +1678,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1598,16 +1704,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1624,16 +1730,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1644,25 +1750,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1670,25 +1776,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1696,25 +1802,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1722,129 +1828,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1897,16 +2029,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1923,16 +2055,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1949,16 +2081,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1969,25 +2101,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1995,25 +2127,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2021,25 +2153,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2047,129 +2179,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2337,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2222,16 +2380,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2248,16 +2406,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2274,16 +2432,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2294,25 +2452,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2320,25 +2478,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2346,25 +2504,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2372,129 +2530,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2688,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2547,16 +2731,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2573,16 +2757,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2599,16 +2783,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2619,25 +2803,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2645,25 +2829,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2671,25 +2855,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2697,129 +2881,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>159</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +3039,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2872,16 +3082,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2898,16 +3108,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2924,16 +3134,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2944,25 +3154,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2970,25 +3180,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2996,25 +3206,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3022,129 +3232,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3390,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3197,16 +3433,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3223,16 +3459,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3249,16 +3485,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3269,25 +3505,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3295,25 +3531,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3321,25 +3557,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3347,129 +3583,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3479,7 +3741,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3522,16 +3784,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3548,16 +3810,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3574,16 +3836,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3594,25 +3856,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3620,25 +3882,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3646,25 +3908,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3672,129 +3934,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3804,7 +4092,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3847,16 +4135,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3873,16 +4161,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3899,16 +4187,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3919,25 +4207,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3945,25 +4233,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3971,25 +4259,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3997,129 +4285,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4443,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4172,16 +4486,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4198,10 +4512,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -4224,10 +4538,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4244,25 +4558,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4270,25 +4584,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4296,25 +4610,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4322,25 +4636,51 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4350,7 +4690,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4393,16 +4733,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4419,16 +4759,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4445,16 +4785,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4465,25 +4805,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4491,25 +4831,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4517,25 +4857,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4543,25 +4883,51 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4571,7 +4937,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4614,16 +4980,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4640,16 +5006,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4666,16 +5032,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4686,25 +5052,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4712,25 +5078,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4738,25 +5104,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4764,25 +5130,51 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4792,7 +5184,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4835,16 +5227,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4861,16 +5253,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4887,16 +5279,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4907,25 +5299,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4933,25 +5325,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4959,25 +5351,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4985,25 +5377,51 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5013,7 +5431,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5056,16 +5474,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5082,16 +5500,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5108,16 +5526,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5128,25 +5546,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5154,25 +5572,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5180,25 +5598,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5206,129 +5624,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="H12" t="s">
-        <v>70</v>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5338,7 +5782,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5381,16 +5825,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5407,16 +5851,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5433,16 +5877,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5453,25 +5897,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5479,25 +5923,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5505,25 +5949,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5531,129 +5975,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5663,7 +6133,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5706,16 +6176,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5732,16 +6202,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5758,16 +6228,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5778,25 +6248,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5804,25 +6274,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5830,25 +6300,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5856,129 +6326,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5988,7 +6484,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6031,16 +6527,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6057,16 +6553,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6083,16 +6579,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6103,25 +6599,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6129,25 +6625,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6155,25 +6651,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6181,129 +6677,155 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="232">
   <si>
     <t>mesure</t>
   </si>
@@ -273,6 +273,12 @@
     <t>99.82</t>
   </si>
   <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>99.5</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -378,6 +384,9 @@
     <t>99.6</t>
   </si>
   <si>
+    <t>99.64</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
@@ -414,6 +423,9 @@
     <t>99.46</t>
   </si>
   <si>
+    <t>99.71</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
@@ -477,9 +489,6 @@
     <t>99.55</t>
   </si>
   <si>
-    <t>99.64</t>
-  </si>
-  <si>
     <t>99.76</t>
   </si>
   <si>
@@ -555,6 +564,9 @@
     <t>99.77</t>
   </si>
   <si>
+    <t>99.22</t>
+  </si>
+  <si>
     <t>76</t>
   </si>
   <si>
@@ -594,6 +606,9 @@
     <t>99.75</t>
   </si>
   <si>
+    <t>99.66</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
@@ -669,6 +684,9 @@
     <t>99.43</t>
   </si>
   <si>
+    <t>99.45</t>
+  </si>
+  <si>
     <t>94</t>
   </si>
   <si>
@@ -706,6 +724,9 @@
   </si>
   <si>
     <t>96.98</t>
+  </si>
+  <si>
+    <t>94.94</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1327,16 +1348,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1353,16 +1374,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1379,16 +1400,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1405,10 +1426,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1431,16 +1452,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -1457,16 +1478,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -1483,16 +1504,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -1509,16 +1530,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -1535,10 +1556,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1561,16 +1582,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -1587,16 +1608,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -1613,18 +1634,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1635,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1678,16 +1725,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1704,16 +1751,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1730,16 +1777,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1756,16 +1803,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1782,16 +1829,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -1808,16 +1855,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -1834,16 +1881,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -1860,16 +1907,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -1886,10 +1933,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1912,16 +1959,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -1938,16 +1985,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -1964,18 +2011,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1986,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2029,16 +2102,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2055,10 +2128,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -2081,16 +2154,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2107,16 +2180,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2133,16 +2206,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2159,16 +2232,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -2185,16 +2258,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -2211,16 +2284,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -2237,10 +2310,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -2263,16 +2336,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -2289,16 +2362,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -2315,18 +2388,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2337,7 +2436,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2380,16 +2479,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2406,16 +2505,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2432,16 +2531,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2458,16 +2557,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2484,16 +2583,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2510,16 +2609,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -2536,16 +2635,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -2562,16 +2661,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -2588,10 +2687,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -2614,16 +2713,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -2640,16 +2739,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -2666,18 +2765,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2688,7 +2813,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2731,16 +2856,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2757,16 +2882,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2783,16 +2908,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2809,16 +2934,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2835,16 +2960,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2861,16 +2986,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -2887,16 +3012,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -2913,16 +3038,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -2939,10 +3064,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -2965,16 +3090,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -2991,16 +3116,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -3017,18 +3142,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3039,7 +3190,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3082,16 +3233,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3108,16 +3259,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3134,16 +3285,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3160,16 +3311,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3186,16 +3337,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -3212,16 +3363,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -3238,16 +3389,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -3264,16 +3415,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -3290,10 +3441,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -3316,16 +3467,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -3342,16 +3493,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -3368,18 +3519,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3390,7 +3567,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3433,16 +3610,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3459,16 +3636,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3485,16 +3662,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3511,16 +3688,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3537,16 +3714,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -3563,16 +3740,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -3589,16 +3766,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -3615,16 +3792,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -3641,10 +3818,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -3667,16 +3844,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -3693,16 +3870,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -3719,18 +3896,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3741,7 +3944,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3784,16 +3987,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3810,16 +4013,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3836,16 +4039,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3862,16 +4065,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3888,16 +4091,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -3914,16 +4117,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -3940,16 +4143,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -3966,16 +4169,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -3992,10 +4195,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -4018,16 +4221,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -4044,16 +4247,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -4070,18 +4273,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4092,7 +4321,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4135,16 +4364,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4161,16 +4390,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4187,16 +4416,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4213,16 +4442,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4239,16 +4468,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -4265,16 +4494,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -4291,16 +4520,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -4317,16 +4546,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -4343,10 +4572,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -4369,16 +4598,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -4395,16 +4624,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -4421,18 +4650,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5431,7 +5686,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5775,6 +6030,32 @@
         <v>76</v>
       </c>
     </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5782,7 +6063,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5825,10 +6106,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -5851,16 +6132,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5877,16 +6158,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5903,16 +6184,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5929,16 +6210,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -5955,16 +6236,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -5981,16 +6262,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -6007,16 +6288,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -6033,10 +6314,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -6059,16 +6340,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -6085,16 +6366,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -6111,18 +6392,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6133,7 +6440,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6176,16 +6483,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6202,16 +6509,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6228,16 +6535,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6254,16 +6561,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6280,16 +6587,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -6306,16 +6613,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -6332,16 +6639,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -6358,16 +6665,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -6384,10 +6691,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -6410,16 +6717,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -6436,16 +6743,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -6462,18 +6769,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6484,7 +6817,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6527,16 +6860,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6553,16 +6886,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6579,16 +6912,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6605,10 +6938,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -6631,16 +6964,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -6657,16 +6990,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -6683,16 +7016,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -6709,16 +7042,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -6735,10 +7068,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -6761,16 +7094,16 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -6787,16 +7120,16 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -6813,18 +7146,44 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>

--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
@@ -60,72 +60,84 @@
     <t>Réduire l'utilisation des produits phytosanitaires et accélérer la transition écologique</t>
   </si>
   <si>
+    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
+  </si>
+  <si>
+    <t>nb-agriculteurs-agro-eco</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>agriculteurs</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>188.0</t>
+  </si>
+  <si>
     <t>Surface agricole cultivée en agriculture biologique</t>
   </si>
   <si>
     <t>surface-agriculture-biologique</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
     <t>0.6</t>
   </si>
   <si>
     <t>% de surface agricole</t>
   </si>
   <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
     <t>0.9</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
     <t>2.9</t>
   </si>
   <si>
-    <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
-  </si>
-  <si>
-    <t>nb-agriculteurs-agro-eco</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>agriculteurs</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>188.0</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
     <t>Martinique</t>
   </si>
   <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
     <t>1.7</t>
   </si>
   <si>
@@ -135,24 +147,18 @@
     <t>3.0</t>
   </si>
   <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
     <t>Guyane</t>
   </si>
   <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
     <t>9.4</t>
   </si>
   <si>
@@ -165,18 +171,24 @@
     <t>11.4</t>
   </si>
   <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
     <t>La Réunion</t>
   </si>
   <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>306.0</t>
+  </si>
+  <si>
+    <t>342.0</t>
+  </si>
+  <si>
+    <t>408.0</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
@@ -186,24 +198,21 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>257.0</t>
-  </si>
-  <si>
-    <t>306.0</t>
-  </si>
-  <si>
-    <t>342.0</t>
-  </si>
-  <si>
-    <t>408.0</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
     <t>Mayotte</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
     <t>0.2</t>
   </si>
   <si>
@@ -213,21 +222,24 @@
     <t>0.4</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>Île-de-France</t>
   </si>
   <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>397.0</t>
+  </si>
+  <si>
+    <t>491.0</t>
+  </si>
+  <si>
+    <t>629.0</t>
+  </si>
+  <si>
     <t>2.7</t>
   </si>
   <si>
@@ -237,18 +249,6 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>314.0</t>
-  </si>
-  <si>
-    <t>397.0</t>
-  </si>
-  <si>
-    <t>491.0</t>
-  </si>
-  <si>
-    <t>629.0</t>
-  </si>
-  <si>
     <t>Sécuriser le paiement des aides PAC</t>
   </si>
   <si>
@@ -285,6 +285,18 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
+    <t>1075.0</t>
+  </si>
+  <si>
+    <t>1275.0</t>
+  </si>
+  <si>
+    <t>1579.0</t>
+  </si>
+  <si>
+    <t>2229.0</t>
+  </si>
+  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -294,18 +306,6 @@
     <t>4.3</t>
   </si>
   <si>
-    <t>1075.0</t>
-  </si>
-  <si>
-    <t>1275.0</t>
-  </si>
-  <si>
-    <t>1579.0</t>
-  </si>
-  <si>
-    <t>2229.0</t>
-  </si>
-  <si>
     <t>99.07</t>
   </si>
   <si>
@@ -321,6 +321,18 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
+    <t>2074.0</t>
+  </si>
+  <si>
+    <t>2363.0</t>
+  </si>
+  <si>
+    <t>2847.0</t>
+  </si>
+  <si>
+    <t>3615.0</t>
+  </si>
+  <si>
     <t>5.9</t>
   </si>
   <si>
@@ -333,18 +345,6 @@
     <t>9.1</t>
   </si>
   <si>
-    <t>2074.0</t>
-  </si>
-  <si>
-    <t>2363.0</t>
-  </si>
-  <si>
-    <t>2847.0</t>
-  </si>
-  <si>
-    <t>3615.0</t>
-  </si>
-  <si>
     <t>99.13</t>
   </si>
   <si>
@@ -360,24 +360,24 @@
     <t>Normandie</t>
   </si>
   <si>
+    <t>1604.0</t>
+  </si>
+  <si>
+    <t>1801.0</t>
+  </si>
+  <si>
+    <t>2010.0</t>
+  </si>
+  <si>
+    <t>2211.0</t>
+  </si>
+  <si>
     <t>4.8</t>
   </si>
   <si>
     <t>5.3</t>
   </si>
   <si>
-    <t>1604.0</t>
-  </si>
-  <si>
-    <t>1801.0</t>
-  </si>
-  <si>
-    <t>2010.0</t>
-  </si>
-  <si>
-    <t>2211.0</t>
-  </si>
-  <si>
     <t>98.92</t>
   </si>
   <si>
@@ -393,6 +393,18 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
+    <t>893.0</t>
+  </si>
+  <si>
+    <t>1020.0</t>
+  </si>
+  <si>
+    <t>1252.0</t>
+  </si>
+  <si>
+    <t>1495.0</t>
+  </si>
+  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -402,18 +414,6 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>893.0</t>
-  </si>
-  <si>
-    <t>1020.0</t>
-  </si>
-  <si>
-    <t>1252.0</t>
-  </si>
-  <si>
-    <t>1495.0</t>
-  </si>
-  <si>
     <t>98.4</t>
   </si>
   <si>
@@ -432,24 +432,24 @@
     <t>Grand Est</t>
   </si>
   <si>
+    <t>2481.0</t>
+  </si>
+  <si>
+    <t>2887.0</t>
+  </si>
+  <si>
+    <t>4180.0</t>
+  </si>
+  <si>
+    <t>6189.0</t>
+  </si>
+  <si>
     <t>4.2</t>
   </si>
   <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>2481.0</t>
-  </si>
-  <si>
-    <t>2887.0</t>
-  </si>
-  <si>
-    <t>4180.0</t>
-  </si>
-  <si>
-    <t>6189.0</t>
-  </si>
-  <si>
     <t>99.25</t>
   </si>
   <si>
@@ -465,6 +465,18 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
+    <t>2953.0</t>
+  </si>
+  <si>
+    <t>3307.0</t>
+  </si>
+  <si>
+    <t>3928.0</t>
+  </si>
+  <si>
+    <t>4814.0</t>
+  </si>
+  <si>
     <t>8.2</t>
   </si>
   <si>
@@ -474,18 +486,6 @@
     <t>11.7</t>
   </si>
   <si>
-    <t>2953.0</t>
-  </si>
-  <si>
-    <t>3307.0</t>
-  </si>
-  <si>
-    <t>3928.0</t>
-  </si>
-  <si>
-    <t>4814.0</t>
-  </si>
-  <si>
     <t>99.55</t>
   </si>
   <si>
@@ -498,6 +498,18 @@
     <t>Bretagne</t>
   </si>
   <si>
+    <t>2697.0</t>
+  </si>
+  <si>
+    <t>3101.0</t>
+  </si>
+  <si>
+    <t>3394.0</t>
+  </si>
+  <si>
+    <t>3845.0</t>
+  </si>
+  <si>
     <t>6.9</t>
   </si>
   <si>
@@ -507,18 +519,6 @@
     <t>9.5</t>
   </si>
   <si>
-    <t>2697.0</t>
-  </si>
-  <si>
-    <t>3101.0</t>
-  </si>
-  <si>
-    <t>3394.0</t>
-  </si>
-  <si>
-    <t>3845.0</t>
-  </si>
-  <si>
     <t>99.49</t>
   </si>
   <si>
@@ -534,6 +534,18 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
+    <t>5614.0</t>
+  </si>
+  <si>
+    <t>6521.0</t>
+  </si>
+  <si>
+    <t>8704.0</t>
+  </si>
+  <si>
+    <t>11742.0</t>
+  </si>
+  <si>
     <t>5.5</t>
   </si>
   <si>
@@ -546,18 +558,6 @@
     <t>8.4</t>
   </si>
   <si>
-    <t>5614.0</t>
-  </si>
-  <si>
-    <t>6521.0</t>
-  </si>
-  <si>
-    <t>8704.0</t>
-  </si>
-  <si>
-    <t>11742.0</t>
-  </si>
-  <si>
     <t>99.39</t>
   </si>
   <si>
@@ -573,6 +573,18 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>8270.0</t>
+  </si>
+  <si>
+    <t>9476.0</t>
+  </si>
+  <si>
+    <t>11480.0</t>
+  </si>
+  <si>
+    <t>14886.0</t>
+  </si>
+  <si>
     <t>12.8</t>
   </si>
   <si>
@@ -585,18 +597,6 @@
     <t>17.7</t>
   </si>
   <si>
-    <t>8270.0</t>
-  </si>
-  <si>
-    <t>9476.0</t>
-  </si>
-  <si>
-    <t>11480.0</t>
-  </si>
-  <si>
-    <t>14886.0</t>
-  </si>
-  <si>
     <t>97.56</t>
   </si>
   <si>
@@ -615,6 +615,18 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
+    <t>5403.0</t>
+  </si>
+  <si>
+    <t>5884.0</t>
+  </si>
+  <si>
+    <t>7007.0</t>
+  </si>
+  <si>
+    <t>8525.0</t>
+  </si>
+  <si>
     <t>8.0</t>
   </si>
   <si>
@@ -624,18 +636,6 @@
     <t>10.5</t>
   </si>
   <si>
-    <t>5403.0</t>
-  </si>
-  <si>
-    <t>5884.0</t>
-  </si>
-  <si>
-    <t>7007.0</t>
-  </si>
-  <si>
-    <t>8525.0</t>
-  </si>
-  <si>
     <t>97.86</t>
   </si>
   <si>
@@ -651,6 +651,18 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
+    <t>3267.0</t>
+  </si>
+  <si>
+    <t>3634.0</t>
+  </si>
+  <si>
+    <t>4454.0</t>
+  </si>
+  <si>
+    <t>5912.0</t>
+  </si>
+  <si>
     <t>23.2</t>
   </si>
   <si>
@@ -663,18 +675,6 @@
     <t>32.4</t>
   </si>
   <si>
-    <t>3267.0</t>
-  </si>
-  <si>
-    <t>3634.0</t>
-  </si>
-  <si>
-    <t>4454.0</t>
-  </si>
-  <si>
-    <t>5912.0</t>
-  </si>
-  <si>
     <t>99.41</t>
   </si>
   <si>
@@ -693,6 +693,18 @@
     <t>Corse</t>
   </si>
   <si>
+    <t>398.0</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>547.0</t>
+  </si>
+  <si>
+    <t>670.0</t>
+  </si>
+  <si>
     <t>10.6</t>
   </si>
   <si>
@@ -703,18 +715,6 @@
   </si>
   <si>
     <t>18.1</t>
-  </si>
-  <si>
-    <t>398.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
-  </si>
-  <si>
-    <t>547.0</t>
-  </si>
-  <si>
-    <t>670.0</t>
   </si>
   <si>
     <t>92.41</t>
@@ -1435,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1461,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -1487,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -1513,7 +1513,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -1539,7 +1539,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -1786,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1812,7 +1812,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1838,7 +1838,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -1864,7 +1864,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -1890,7 +1890,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -1916,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -2137,7 +2137,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2163,7 +2163,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2189,7 +2189,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2215,7 +2215,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2241,7 +2241,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -2488,7 +2488,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2514,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2540,7 +2540,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2566,7 +2566,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2592,7 +2592,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -3671,7 +3671,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3697,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3723,7 +3723,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -3749,7 +3749,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -3775,7 +3775,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -4776,7 +4776,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4802,7 +4802,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4828,7 +4828,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4854,7 +4854,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -4997,7 +4997,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5023,7 +5023,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5049,7 +5049,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5075,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5101,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -5127,7 +5127,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -5153,7 +5153,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -5270,7 +5270,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5296,7 +5296,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5322,7 +5322,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5348,7 +5348,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -5374,7 +5374,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5543,7 +5543,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5621,7 +5621,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -5647,7 +5647,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -5790,7 +5790,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5816,7 +5816,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5842,7 +5842,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -5868,7 +5868,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -5894,7 +5894,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -6115,7 +6115,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6141,7 +6141,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6193,7 +6193,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6219,7 +6219,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -6869,7 +6869,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6895,7 +6895,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6921,7 +6921,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6947,7 +6947,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6973,7 +6973,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -6999,7 +6999,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -7025,7 +7025,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -7051,7 +7051,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>

--- a/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
+++ b/secteur-action-publique/agriculture/regions/barometre-resultats-agriculture-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="267">
   <si>
     <t>mesure</t>
   </si>
@@ -60,64 +60,73 @@
     <t>Réduire l'utilisation des produits phytosanitaires et accélérer la transition écologique</t>
   </si>
   <si>
+    <t>Surface agricole cultivée en agriculture biologique</t>
+  </si>
+  <si>
+    <t>surface-agriculture-biologique</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>% de surface agricole</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
     <t>Nombre d’agriculteurs engagés dans une démarche certifiée de transition agro-écologique</t>
   </si>
   <si>
     <t>nb-agriculteurs-agro-eco</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
     <t>49.0</t>
   </si>
   <si>
     <t>agriculteurs</t>
   </si>
   <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
     <t>63.0</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
     <t>105.0</t>
   </si>
   <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
     <t>188.0</t>
   </si>
   <si>
-    <t>Surface agricole cultivée en agriculture biologique</t>
-  </si>
-  <si>
-    <t>surface-agriculture-biologique</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>% de surface agricole</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.9</t>
+    <t>233.0</t>
   </si>
   <si>
     <t>02</t>
@@ -126,6 +135,18 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
     <t>57.0</t>
   </si>
   <si>
@@ -138,13 +159,7 @@
     <t>120.0</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>3.0</t>
+    <t>147.0</t>
   </si>
   <si>
     <t>03</t>
@@ -153,22 +168,28 @@
     <t>Guyane</t>
   </si>
   <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
     <t>75.0</t>
   </si>
   <si>
     <t>98.0</t>
   </si>
   <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>11.4</t>
+    <t>104.0</t>
   </si>
   <si>
     <t>04</t>
@@ -177,6 +198,18 @@
     <t>La Réunion</t>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
     <t>257.0</t>
   </si>
   <si>
@@ -189,13 +222,7 @@
     <t>408.0</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
+    <t>495.0</t>
   </si>
   <si>
     <t>06</t>
@@ -204,7 +231,13 @@
     <t>Mayotte</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
   <si>
     <t>11.0</t>
@@ -213,13 +246,7 @@
     <t>12.0</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>14.0</t>
   </si>
   <si>
     <t>11</t>
@@ -228,6 +255,18 @@
     <t>Île-de-France</t>
   </si>
   <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
     <t>314.0</t>
   </si>
   <si>
@@ -240,13 +279,7 @@
     <t>629.0</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>6.3</t>
+    <t>712.0</t>
   </si>
   <si>
     <t>Sécuriser le paiement des aides PAC</t>
@@ -273,18 +306,33 @@
     <t>99.82</t>
   </si>
   <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
     <t>99.5</t>
   </si>
   <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>99.92</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
     <t>Centre-Val de Loire</t>
   </si>
   <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
     <t>1075.0</t>
   </si>
   <si>
@@ -297,13 +345,7 @@
     <t>2229.0</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>4.3</t>
+    <t>2789.0</t>
   </si>
   <si>
     <t>99.07</t>
@@ -315,12 +357,30 @@
     <t>99.88</t>
   </si>
   <si>
+    <t>99.53</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
     <t>2074.0</t>
   </si>
   <si>
@@ -333,16 +393,7 @@
     <t>3615.0</t>
   </si>
   <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>9.1</t>
+    <t>4488.0</t>
   </si>
   <si>
     <t>99.13</t>
@@ -354,12 +405,21 @@
     <t>99.81</t>
   </si>
   <si>
+    <t>99.75</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
     <t>Normandie</t>
   </si>
   <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
     <t>1604.0</t>
   </si>
   <si>
@@ -372,10 +432,7 @@
     <t>2211.0</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>5.3</t>
+    <t>2506.0</t>
   </si>
   <si>
     <t>98.92</t>
@@ -387,12 +444,27 @@
     <t>99.64</t>
   </si>
   <si>
+    <t>99.77</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
     <t>Hauts-de-France</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
     <t>893.0</t>
   </si>
   <si>
@@ -405,13 +477,7 @@
     <t>1495.0</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.1</t>
+    <t>1831.0</t>
   </si>
   <si>
     <t>98.4</t>
@@ -426,12 +492,24 @@
     <t>99.71</t>
   </si>
   <si>
+    <t>99.73</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
     <t>Grand Est</t>
   </si>
   <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
     <t>2481.0</t>
   </si>
   <si>
@@ -444,10 +522,7 @@
     <t>6189.0</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.9</t>
+    <t>9058.0</t>
   </si>
   <si>
     <t>99.25</t>
@@ -459,12 +534,27 @@
     <t>99.7</t>
   </si>
   <si>
+    <t>99.45</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
     <t>Pays de la Loire</t>
   </si>
   <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
     <t>2953.0</t>
   </si>
   <si>
@@ -477,13 +567,7 @@
     <t>4814.0</t>
   </si>
   <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>11.7</t>
+    <t>5355.0</t>
   </si>
   <si>
     <t>99.55</t>
@@ -498,6 +582,15 @@
     <t>Bretagne</t>
   </si>
   <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
     <t>2697.0</t>
   </si>
   <si>
@@ -510,13 +603,7 @@
     <t>3845.0</t>
   </si>
   <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>9.5</t>
+    <t>4381.0</t>
   </si>
   <si>
     <t>99.49</t>
@@ -528,12 +615,27 @@
     <t>99.61</t>
   </si>
   <si>
+    <t>99.69</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
     <t>5614.0</t>
   </si>
   <si>
@@ -546,24 +648,12 @@
     <t>11742.0</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>8.4</t>
+    <t>13827.0</t>
   </si>
   <si>
     <t>99.39</t>
   </si>
   <si>
-    <t>99.77</t>
-  </si>
-  <si>
     <t>99.22</t>
   </si>
   <si>
@@ -573,6 +663,21 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
     <t>8270.0</t>
   </si>
   <si>
@@ -585,27 +690,12 @@
     <t>14886.0</t>
   </si>
   <si>
-    <t>12.8</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>17.7</t>
+    <t>19313.0</t>
   </si>
   <si>
     <t>97.56</t>
   </si>
   <si>
-    <t>99.53</t>
-  </si>
-  <si>
-    <t>99.75</t>
-  </si>
-  <si>
     <t>99.66</t>
   </si>
   <si>
@@ -615,6 +705,15 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
     <t>5403.0</t>
   </si>
   <si>
@@ -627,13 +726,7 @@
     <t>8525.0</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>10.5</t>
+    <t>9866.0</t>
   </si>
   <si>
     <t>97.86</t>
@@ -642,15 +735,27 @@
     <t>99.51</t>
   </si>
   <si>
-    <t>99.73</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
     <t>3267.0</t>
   </si>
   <si>
@@ -663,16 +768,7 @@
     <t>5912.0</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>25.6</t>
-  </si>
-  <si>
-    <t>28.8</t>
-  </si>
-  <si>
-    <t>32.4</t>
+    <t>7344.0</t>
   </si>
   <si>
     <t>99.41</t>
@@ -684,7 +780,7 @@
     <t>99.43</t>
   </si>
   <si>
-    <t>99.45</t>
+    <t>99.62</t>
   </si>
   <si>
     <t>94</t>
@@ -693,6 +789,21 @@
     <t>Corse</t>
   </si>
   <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>398.0</t>
   </si>
   <si>
@@ -705,16 +816,7 @@
     <t>670.0</t>
   </si>
   <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>18.1</t>
+    <t>775.0</t>
   </si>
   <si>
     <t>92.41</t>
@@ -727,6 +829,9 @@
   </si>
   <si>
     <t>94.94</t>
+  </si>
+  <si>
+    <t>91.31</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1199,10 +1304,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1211,13 +1316,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1225,10 +1330,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1237,13 +1342,13 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1251,10 +1356,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1263,13 +1368,13 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1277,10 +1382,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1289,13 +1394,65 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1348,16 +1505,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1374,16 +1531,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1400,16 +1557,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1426,16 +1583,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1446,25 +1603,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1472,25 +1629,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1498,25 +1655,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1524,155 +1681,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1917,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1725,16 +1960,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1751,16 +1986,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1777,16 +2012,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1803,16 +2038,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1823,25 +2058,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1849,25 +2084,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1875,25 +2110,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1901,155 +2136,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2059,7 +2372,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2102,16 +2415,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2128,16 +2441,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2154,16 +2467,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2180,16 +2493,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2200,25 +2513,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2226,25 +2539,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2252,25 +2565,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2278,155 +2591,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="H14" t="s">
-        <v>76</v>
+      <c r="G17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2827,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2479,16 +2870,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2505,16 +2896,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2531,16 +2922,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2557,16 +2948,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2577,25 +2968,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2603,25 +2994,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2629,25 +3020,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2655,155 +3046,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +3282,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2856,16 +3325,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2882,16 +3351,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2908,16 +3377,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2934,16 +3403,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2954,25 +3423,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2980,25 +3449,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3006,25 +3475,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3032,155 +3501,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
         <v>165</v>
       </c>
-      <c r="E14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3737,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3233,16 +3780,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3259,16 +3806,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3285,16 +3832,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3311,16 +3858,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3331,25 +3878,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3357,25 +3904,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3383,25 +3930,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3409,155 +3956,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +4192,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3610,16 +4235,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3636,16 +4261,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3662,16 +4287,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3688,16 +4313,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3708,25 +4333,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3734,25 +4359,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3760,25 +4385,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3786,155 +4411,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
         <v>192</v>
       </c>
-      <c r="E14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +4647,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3987,16 +4690,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4013,16 +4716,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4039,16 +4742,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4065,16 +4768,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4085,25 +4788,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4111,25 +4814,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4137,25 +4840,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4163,155 +4866,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4321,7 +5102,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4364,16 +5145,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4390,16 +5171,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4416,16 +5197,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4442,16 +5223,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4462,25 +5243,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4488,25 +5269,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4514,25 +5295,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4540,155 +5321,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4698,7 +5557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4741,16 +5600,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4767,16 +5626,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4793,16 +5652,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4819,16 +5678,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4839,25 +5698,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4865,25 +5724,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4891,25 +5750,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4917,25 +5776,77 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +5856,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4988,16 +5899,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5014,16 +5925,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5040,16 +5951,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5066,16 +5977,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5086,25 +5997,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5112,25 +6023,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5138,25 +6049,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5164,25 +6075,77 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5192,7 +6155,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5235,16 +6198,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5261,16 +6224,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5287,16 +6250,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5313,16 +6276,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5333,25 +6296,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5359,25 +6322,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5385,25 +6348,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5411,25 +6374,77 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5439,7 +6454,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5482,16 +6497,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5508,16 +6523,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5534,16 +6549,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5560,16 +6575,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5580,25 +6595,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5606,25 +6621,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5632,25 +6647,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5658,25 +6673,77 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +6753,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5729,16 +6796,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5755,16 +6822,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5781,16 +6848,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5807,16 +6874,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5827,25 +6894,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5853,25 +6920,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5879,25 +6946,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5905,155 +6972,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6063,7 +7208,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6106,16 +7251,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6132,16 +7277,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6158,16 +7303,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6184,16 +7329,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6204,25 +7349,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6230,25 +7375,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6256,25 +7401,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6282,155 +7427,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="H14" t="s">
-        <v>76</v>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6440,7 +7663,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6483,16 +7706,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6509,16 +7732,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6535,16 +7758,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6561,16 +7784,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6581,25 +7804,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6607,25 +7830,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6633,25 +7856,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6659,155 +7882,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6817,7 +8118,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6860,16 +8161,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6886,16 +8187,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6912,16 +8213,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6938,16 +8239,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6958,25 +8259,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6984,25 +8285,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7010,25 +8311,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7036,155 +8337,233 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
